--- a/public/ddbb/BASE_PERSONAL.xlsx
+++ b/public/ddbb/BASE_PERSONAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATENTO\WEB_TRAININGS\0. PLANTILLA\plantilla centralizada\public\ddbb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesto\Documents\Back Atento\Plantilla\web-training-template\public\ddbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCA08DA-7BF1-4147-BE32-FDF445741EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364936E2-908C-4227-81C0-2CB8466A2FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>CEDULA</t>
   </si>
   <si>
-    <t>NESTOR GOMEZ</t>
+    <t>NESTOR DAVID GOMEZ</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
